--- a/magic/CJE/旧版手册呪文_仅名称.xlsx
+++ b/magic/CJE/旧版手册呪文_仅名称.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\resap\Downloads\alll\magic\CJE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136E79E7-FF6D-4A22-B33C-7A9C0FB8B463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CC16AD-875F-4F1D-85AA-F7E935730D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15315" yWindow="8490" windowWidth="15180" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="329">
   <si>
     <t>Key</t>
   </si>
@@ -1393,8 +1393,8 @@
   <dimension ref="A1:G162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1585,10 +1585,7 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>262</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="1" t="s">
         <v>323</v>
       </c>
     </row>
@@ -1804,9 +1801,6 @@
       <c r="A48" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="C48" s="1" t="s">
         <v>287</v>
       </c>
@@ -1815,9 +1809,6 @@
       <c r="A49" t="s">
         <v>54</v>
       </c>
-      <c r="B49" t="s">
-        <v>262</v>
-      </c>
       <c r="C49" s="1" t="s">
         <v>288</v>
       </c>
@@ -1826,9 +1817,6 @@
       <c r="A50" t="s">
         <v>55</v>
       </c>
-      <c r="B50" t="s">
-        <v>262</v>
-      </c>
       <c r="C50" s="1" t="s">
         <v>289</v>
       </c>
@@ -1837,9 +1825,6 @@
       <c r="A51" t="s">
         <v>56</v>
       </c>
-      <c r="B51" t="s">
-        <v>262</v>
-      </c>
       <c r="C51" s="1" t="s">
         <v>290</v>
       </c>
@@ -1848,9 +1833,6 @@
       <c r="A52" t="s">
         <v>57</v>
       </c>
-      <c r="B52" t="s">
-        <v>262</v>
-      </c>
       <c r="C52" s="1" t="s">
         <v>291</v>
       </c>
@@ -1859,9 +1841,6 @@
       <c r="A53" t="s">
         <v>58</v>
       </c>
-      <c r="B53" t="s">
-        <v>262</v>
-      </c>
       <c r="C53" s="1" t="s">
         <v>292</v>
       </c>
@@ -1870,9 +1849,6 @@
       <c r="A54" t="s">
         <v>59</v>
       </c>
-      <c r="B54" t="s">
-        <v>262</v>
-      </c>
       <c r="C54" s="8" t="s">
         <v>327</v>
       </c>
@@ -1881,9 +1857,6 @@
       <c r="A55" t="s">
         <v>60</v>
       </c>
-      <c r="B55" t="s">
-        <v>262</v>
-      </c>
       <c r="C55" s="1" t="s">
         <v>293</v>
       </c>
@@ -1892,9 +1865,6 @@
       <c r="A56" t="s">
         <v>61</v>
       </c>
-      <c r="B56" t="s">
-        <v>262</v>
-      </c>
       <c r="C56" s="1" t="s">
         <v>294</v>
       </c>
@@ -1903,9 +1873,6 @@
       <c r="A57" t="s">
         <v>62</v>
       </c>
-      <c r="B57" t="s">
-        <v>262</v>
-      </c>
       <c r="C57" s="1" t="s">
         <v>295</v>
       </c>
@@ -1922,9 +1889,6 @@
       <c r="A59" t="s">
         <v>65</v>
       </c>
-      <c r="B59" t="s">
-        <v>262</v>
-      </c>
       <c r="C59" s="1" t="s">
         <v>296</v>
       </c>
@@ -1933,9 +1897,6 @@
       <c r="A60" t="s">
         <v>66</v>
       </c>
-      <c r="B60" t="s">
-        <v>262</v>
-      </c>
       <c r="C60" s="1" t="s">
         <v>299</v>
       </c>
@@ -1952,9 +1913,6 @@
       <c r="A62" t="s">
         <v>67</v>
       </c>
-      <c r="B62" t="s">
-        <v>262</v>
-      </c>
       <c r="C62" s="1" t="s">
         <v>300</v>
       </c>
@@ -1963,9 +1921,6 @@
       <c r="A63" t="s">
         <v>68</v>
       </c>
-      <c r="B63" t="s">
-        <v>262</v>
-      </c>
       <c r="C63" s="1" t="s">
         <v>301</v>
       </c>
@@ -1974,9 +1929,6 @@
       <c r="A64" t="s">
         <v>69</v>
       </c>
-      <c r="B64" t="s">
-        <v>262</v>
-      </c>
       <c r="C64" s="1" t="s">
         <v>302</v>
       </c>
@@ -1985,9 +1937,6 @@
       <c r="A65" t="s">
         <v>70</v>
       </c>
-      <c r="B65" t="s">
-        <v>262</v>
-      </c>
       <c r="C65" s="1" t="s">
         <v>303</v>
       </c>
@@ -1996,9 +1945,6 @@
       <c r="A66" t="s">
         <v>71</v>
       </c>
-      <c r="B66" t="s">
-        <v>262</v>
-      </c>
       <c r="C66" s="1" t="s">
         <v>304</v>
       </c>
@@ -2007,9 +1953,6 @@
       <c r="A67" t="s">
         <v>72</v>
       </c>
-      <c r="B67" t="s">
-        <v>262</v>
-      </c>
       <c r="C67" s="1" t="s">
         <v>305</v>
       </c>
@@ -2018,9 +1961,6 @@
       <c r="A68" t="s">
         <v>73</v>
       </c>
-      <c r="B68" t="s">
-        <v>262</v>
-      </c>
       <c r="C68" s="1" t="s">
         <v>306</v>
       </c>
@@ -2029,9 +1969,6 @@
       <c r="A69" t="s">
         <v>74</v>
       </c>
-      <c r="B69" t="s">
-        <v>262</v>
-      </c>
       <c r="C69" s="1" t="s">
         <v>307</v>
       </c>
@@ -2040,9 +1977,6 @@
       <c r="A70" t="s">
         <v>75</v>
       </c>
-      <c r="B70" t="s">
-        <v>262</v>
-      </c>
       <c r="C70" s="1" t="s">
         <v>308</v>
       </c>
@@ -2051,9 +1985,6 @@
       <c r="A71" t="s">
         <v>76</v>
       </c>
-      <c r="B71" t="s">
-        <v>262</v>
-      </c>
       <c r="C71" s="1" t="s">
         <v>309</v>
       </c>
@@ -2062,7 +1993,7 @@
       <c r="A72" t="s">
         <v>77</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="4" t="s">
         <v>262</v>
       </c>
       <c r="C72" s="1" t="s">

--- a/magic/CJE/旧版手册呪文_仅名称.xlsx
+++ b/magic/CJE/旧版手册呪文_仅名称.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\resap\Downloads\alll\magic\CJE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D001F771-6122-41CA-ADA2-77C16FD6851C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D79831-59F1-4A54-9506-E6C44A608930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9930" yWindow="405" windowWidth="17805" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="旧版手册呪文" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2753,16 +2752,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553E7546-833D-448F-B88A-9DC9178C8653}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/magic/CJE/旧版手册呪文_仅名称.xlsx
+++ b/magic/CJE/旧版手册呪文_仅名称.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\resap\Downloads\alll\magic\CJE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D79831-59F1-4A54-9506-E6C44A608930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67DED8E-E0FA-483B-A2F7-156AF5731AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9930" yWindow="405" windowWidth="17805" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="旧版手册呪文" sheetId="1" r:id="rId1"/>
+    <sheet name="顺序" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="341">
   <si>
     <t>Key</t>
   </si>
@@ -1027,6 +1028,27 @@
   </si>
   <si>
     <t>LOOKTOTHEFUTURE/未来观测术/LooktotheFuture</t>
+  </si>
+  <si>
+    <t>\f</t>
+  </si>
+  <si>
+    <t>\n</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>目录-旧版手册呪文(中日英三语):</t>
+  </si>
+  <si>
+    <t>QQ：3612464276（需使用.send指令）</t>
+  </si>
+  <si>
+    <t>提问箱：https://box.n3ko.cc/_/no_reply31cat</t>
+  </si>
+  <si>
+    <t>汇报错误等请使用以下渠道：</t>
   </si>
 </sst>
 </file>
@@ -1401,8 +1423,8 @@
   <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2752,4 +2774,2169 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52749F28-BD4A-42E3-8FF0-74AD0ADF569F}">
+  <dimension ref="A1:D170"/>
+  <sheetViews>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>335</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>336</v>
+      </c>
+      <c r="D14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>334</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>336</v>
+      </c>
+      <c r="D16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>335</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>336</v>
+      </c>
+      <c r="D17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>335</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>336</v>
+      </c>
+      <c r="D18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>335</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>336</v>
+      </c>
+      <c r="D19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>335</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>336</v>
+      </c>
+      <c r="D20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>335</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>336</v>
+      </c>
+      <c r="D21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>335</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>336</v>
+      </c>
+      <c r="D22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>335</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>336</v>
+      </c>
+      <c r="D23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>335</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>336</v>
+      </c>
+      <c r="D24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>335</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>335</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>336</v>
+      </c>
+      <c r="D26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>334</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>336</v>
+      </c>
+      <c r="D27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>335</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>336</v>
+      </c>
+      <c r="D28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>335</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>336</v>
+      </c>
+      <c r="D29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>335</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>336</v>
+      </c>
+      <c r="D30" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>335</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>336</v>
+      </c>
+      <c r="D31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>335</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>336</v>
+      </c>
+      <c r="D32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>335</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>336</v>
+      </c>
+      <c r="D33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>335</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>336</v>
+      </c>
+      <c r="D34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>335</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>336</v>
+      </c>
+      <c r="D35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>335</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>336</v>
+      </c>
+      <c r="D36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>335</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>334</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>336</v>
+      </c>
+      <c r="D38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>335</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>336</v>
+      </c>
+      <c r="D39" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>335</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>336</v>
+      </c>
+      <c r="D40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>335</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>336</v>
+      </c>
+      <c r="D41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>335</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>336</v>
+      </c>
+      <c r="D42" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>335</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>336</v>
+      </c>
+      <c r="D43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>335</v>
+      </c>
+      <c r="B44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" t="s">
+        <v>336</v>
+      </c>
+      <c r="D44" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>335</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
+        <v>336</v>
+      </c>
+      <c r="D45" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>335</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>336</v>
+      </c>
+      <c r="D46" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>335</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" t="s">
+        <v>336</v>
+      </c>
+      <c r="D47" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>335</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>336</v>
+      </c>
+      <c r="D48" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>334</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s">
+        <v>336</v>
+      </c>
+      <c r="D49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>335</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
+        <v>336</v>
+      </c>
+      <c r="D50" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>335</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" t="s">
+        <v>336</v>
+      </c>
+      <c r="D51" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>335</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" t="s">
+        <v>336</v>
+      </c>
+      <c r="D52" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>335</v>
+      </c>
+      <c r="B53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" t="s">
+        <v>336</v>
+      </c>
+      <c r="D53" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>335</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" t="s">
+        <v>336</v>
+      </c>
+      <c r="D54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>335</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" t="s">
+        <v>336</v>
+      </c>
+      <c r="D55" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>335</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>336</v>
+      </c>
+      <c r="D56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>335</v>
+      </c>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>336</v>
+      </c>
+      <c r="D57" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>335</v>
+      </c>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" t="s">
+        <v>336</v>
+      </c>
+      <c r="D58" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>335</v>
+      </c>
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" t="s">
+        <v>336</v>
+      </c>
+      <c r="D59" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>334</v>
+      </c>
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" t="s">
+        <v>336</v>
+      </c>
+      <c r="D60" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>335</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
+        <v>336</v>
+      </c>
+      <c r="D61" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>335</v>
+      </c>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" t="s">
+        <v>336</v>
+      </c>
+      <c r="D62" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>335</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" t="s">
+        <v>336</v>
+      </c>
+      <c r="D63" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>335</v>
+      </c>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
+        <v>336</v>
+      </c>
+      <c r="D64" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>335</v>
+      </c>
+      <c r="B65" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" t="s">
+        <v>336</v>
+      </c>
+      <c r="D65" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>335</v>
+      </c>
+      <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" t="s">
+        <v>336</v>
+      </c>
+      <c r="D66" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>335</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>336</v>
+      </c>
+      <c r="D67" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>335</v>
+      </c>
+      <c r="B68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" t="s">
+        <v>336</v>
+      </c>
+      <c r="D68" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>335</v>
+      </c>
+      <c r="B69" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" t="s">
+        <v>336</v>
+      </c>
+      <c r="D69" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>335</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="s">
+        <v>336</v>
+      </c>
+      <c r="D70" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>334</v>
+      </c>
+      <c r="B71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" t="s">
+        <v>336</v>
+      </c>
+      <c r="D71" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>335</v>
+      </c>
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" t="s">
+        <v>336</v>
+      </c>
+      <c r="D72" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>335</v>
+      </c>
+      <c r="B73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" t="s">
+        <v>336</v>
+      </c>
+      <c r="D73" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>335</v>
+      </c>
+      <c r="B74" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" t="s">
+        <v>336</v>
+      </c>
+      <c r="D74" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>335</v>
+      </c>
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" t="s">
+        <v>336</v>
+      </c>
+      <c r="D75" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>335</v>
+      </c>
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" t="s">
+        <v>336</v>
+      </c>
+      <c r="D76" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>335</v>
+      </c>
+      <c r="B77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" t="s">
+        <v>336</v>
+      </c>
+      <c r="D77" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>335</v>
+      </c>
+      <c r="B78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" t="s">
+        <v>336</v>
+      </c>
+      <c r="D78" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>335</v>
+      </c>
+      <c r="B79" t="s">
+        <v>91</v>
+      </c>
+      <c r="C79" t="s">
+        <v>336</v>
+      </c>
+      <c r="D79" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>335</v>
+      </c>
+      <c r="B80" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" t="s">
+        <v>336</v>
+      </c>
+      <c r="D80" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>335</v>
+      </c>
+      <c r="B81" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" t="s">
+        <v>336</v>
+      </c>
+      <c r="D81" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>334</v>
+      </c>
+      <c r="B82" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" t="s">
+        <v>336</v>
+      </c>
+      <c r="D82" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>335</v>
+      </c>
+      <c r="B83" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" t="s">
+        <v>336</v>
+      </c>
+      <c r="D83" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>335</v>
+      </c>
+      <c r="B84" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" t="s">
+        <v>336</v>
+      </c>
+      <c r="D84" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>335</v>
+      </c>
+      <c r="B85" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" t="s">
+        <v>336</v>
+      </c>
+      <c r="D85" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>335</v>
+      </c>
+      <c r="B86" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" t="s">
+        <v>336</v>
+      </c>
+      <c r="D86" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>335</v>
+      </c>
+      <c r="B87" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" t="s">
+        <v>336</v>
+      </c>
+      <c r="D87" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>335</v>
+      </c>
+      <c r="B88" t="s">
+        <v>260</v>
+      </c>
+      <c r="C88" t="s">
+        <v>336</v>
+      </c>
+      <c r="D88" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>335</v>
+      </c>
+      <c r="B89" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" t="s">
+        <v>336</v>
+      </c>
+      <c r="D89" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>335</v>
+      </c>
+      <c r="B90" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" t="s">
+        <v>336</v>
+      </c>
+      <c r="D90" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>335</v>
+      </c>
+      <c r="B91" t="s">
+        <v>105</v>
+      </c>
+      <c r="C91" t="s">
+        <v>336</v>
+      </c>
+      <c r="D91" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>335</v>
+      </c>
+      <c r="B92" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" t="s">
+        <v>336</v>
+      </c>
+      <c r="D92" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>334</v>
+      </c>
+      <c r="B93" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93" t="s">
+        <v>336</v>
+      </c>
+      <c r="D93" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>335</v>
+      </c>
+      <c r="B94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" t="s">
+        <v>336</v>
+      </c>
+      <c r="D94" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>335</v>
+      </c>
+      <c r="B95" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" t="s">
+        <v>336</v>
+      </c>
+      <c r="D95" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>335</v>
+      </c>
+      <c r="B96" t="s">
+        <v>110</v>
+      </c>
+      <c r="C96" t="s">
+        <v>336</v>
+      </c>
+      <c r="D96" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>335</v>
+      </c>
+      <c r="B97" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97" t="s">
+        <v>336</v>
+      </c>
+      <c r="D97" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>335</v>
+      </c>
+      <c r="B98" t="s">
+        <v>114</v>
+      </c>
+      <c r="C98" t="s">
+        <v>336</v>
+      </c>
+      <c r="D98" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>335</v>
+      </c>
+      <c r="B99" t="s">
+        <v>115</v>
+      </c>
+      <c r="C99" t="s">
+        <v>336</v>
+      </c>
+      <c r="D99" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>335</v>
+      </c>
+      <c r="B100" t="s">
+        <v>116</v>
+      </c>
+      <c r="C100" t="s">
+        <v>336</v>
+      </c>
+      <c r="D100" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>335</v>
+      </c>
+      <c r="B101" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" t="s">
+        <v>336</v>
+      </c>
+      <c r="D101" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>335</v>
+      </c>
+      <c r="B102" t="s">
+        <v>282</v>
+      </c>
+      <c r="C102" t="s">
+        <v>336</v>
+      </c>
+      <c r="D102" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>335</v>
+      </c>
+      <c r="B103" t="s">
+        <v>118</v>
+      </c>
+      <c r="C103" t="s">
+        <v>336</v>
+      </c>
+      <c r="D103" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>334</v>
+      </c>
+      <c r="B104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C104" t="s">
+        <v>336</v>
+      </c>
+      <c r="D104" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>335</v>
+      </c>
+      <c r="B105" t="s">
+        <v>120</v>
+      </c>
+      <c r="C105" t="s">
+        <v>336</v>
+      </c>
+      <c r="D105" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>335</v>
+      </c>
+      <c r="B106" t="s">
+        <v>121</v>
+      </c>
+      <c r="C106" t="s">
+        <v>336</v>
+      </c>
+      <c r="D106" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>335</v>
+      </c>
+      <c r="B107" t="s">
+        <v>122</v>
+      </c>
+      <c r="C107" t="s">
+        <v>336</v>
+      </c>
+      <c r="D107" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>335</v>
+      </c>
+      <c r="B108" t="s">
+        <v>123</v>
+      </c>
+      <c r="C108" t="s">
+        <v>336</v>
+      </c>
+      <c r="D108" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>335</v>
+      </c>
+      <c r="B109" t="s">
+        <v>124</v>
+      </c>
+      <c r="C109" t="s">
+        <v>336</v>
+      </c>
+      <c r="D109" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>335</v>
+      </c>
+      <c r="B110" t="s">
+        <v>125</v>
+      </c>
+      <c r="C110" t="s">
+        <v>336</v>
+      </c>
+      <c r="D110" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>335</v>
+      </c>
+      <c r="B111" t="s">
+        <v>126</v>
+      </c>
+      <c r="C111" t="s">
+        <v>336</v>
+      </c>
+      <c r="D111" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>335</v>
+      </c>
+      <c r="B112" t="s">
+        <v>129</v>
+      </c>
+      <c r="C112" t="s">
+        <v>336</v>
+      </c>
+      <c r="D112" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>335</v>
+      </c>
+      <c r="B113" t="s">
+        <v>130</v>
+      </c>
+      <c r="C113" t="s">
+        <v>336</v>
+      </c>
+      <c r="D113" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>335</v>
+      </c>
+      <c r="B114" t="s">
+        <v>131</v>
+      </c>
+      <c r="C114" t="s">
+        <v>336</v>
+      </c>
+      <c r="D114" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>334</v>
+      </c>
+      <c r="B115" t="s">
+        <v>132</v>
+      </c>
+      <c r="C115" t="s">
+        <v>336</v>
+      </c>
+      <c r="D115" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>335</v>
+      </c>
+      <c r="B116" t="s">
+        <v>133</v>
+      </c>
+      <c r="C116" t="s">
+        <v>336</v>
+      </c>
+      <c r="D116" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>335</v>
+      </c>
+      <c r="B117" t="s">
+        <v>134</v>
+      </c>
+      <c r="C117" t="s">
+        <v>336</v>
+      </c>
+      <c r="D117" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>335</v>
+      </c>
+      <c r="B118" t="s">
+        <v>135</v>
+      </c>
+      <c r="C118" t="s">
+        <v>336</v>
+      </c>
+      <c r="D118" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>335</v>
+      </c>
+      <c r="B119" t="s">
+        <v>136</v>
+      </c>
+      <c r="C119" t="s">
+        <v>336</v>
+      </c>
+      <c r="D119" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>335</v>
+      </c>
+      <c r="B120" t="s">
+        <v>137</v>
+      </c>
+      <c r="C120" t="s">
+        <v>336</v>
+      </c>
+      <c r="D120" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>335</v>
+      </c>
+      <c r="B121" t="s">
+        <v>302</v>
+      </c>
+      <c r="C121" t="s">
+        <v>336</v>
+      </c>
+      <c r="D121" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>335</v>
+      </c>
+      <c r="B122" t="s">
+        <v>138</v>
+      </c>
+      <c r="C122" t="s">
+        <v>336</v>
+      </c>
+      <c r="D122" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>335</v>
+      </c>
+      <c r="B123" t="s">
+        <v>139</v>
+      </c>
+      <c r="C123" t="s">
+        <v>336</v>
+      </c>
+      <c r="D123" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>335</v>
+      </c>
+      <c r="B124" t="s">
+        <v>140</v>
+      </c>
+      <c r="C124" t="s">
+        <v>336</v>
+      </c>
+      <c r="D124" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>335</v>
+      </c>
+      <c r="B125" t="s">
+        <v>141</v>
+      </c>
+      <c r="C125" t="s">
+        <v>336</v>
+      </c>
+      <c r="D125" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>334</v>
+      </c>
+      <c r="B126" t="s">
+        <v>142</v>
+      </c>
+      <c r="C126" t="s">
+        <v>336</v>
+      </c>
+      <c r="D126" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>335</v>
+      </c>
+      <c r="B127" t="s">
+        <v>143</v>
+      </c>
+      <c r="C127" t="s">
+        <v>336</v>
+      </c>
+      <c r="D127" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>335</v>
+      </c>
+      <c r="B128" t="s">
+        <v>147</v>
+      </c>
+      <c r="C128" t="s">
+        <v>336</v>
+      </c>
+      <c r="D128" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>335</v>
+      </c>
+      <c r="B129" t="s">
+        <v>150</v>
+      </c>
+      <c r="C129" t="s">
+        <v>336</v>
+      </c>
+      <c r="D129" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>335</v>
+      </c>
+      <c r="B130" t="s">
+        <v>151</v>
+      </c>
+      <c r="C130" t="s">
+        <v>336</v>
+      </c>
+      <c r="D130" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>335</v>
+      </c>
+      <c r="B131" t="s">
+        <v>154</v>
+      </c>
+      <c r="C131" t="s">
+        <v>336</v>
+      </c>
+      <c r="D131" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>335</v>
+      </c>
+      <c r="B132" t="s">
+        <v>155</v>
+      </c>
+      <c r="C132" t="s">
+        <v>336</v>
+      </c>
+      <c r="D132" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>335</v>
+      </c>
+      <c r="B133" t="s">
+        <v>156</v>
+      </c>
+      <c r="C133" t="s">
+        <v>336</v>
+      </c>
+      <c r="D133" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>335</v>
+      </c>
+      <c r="B134" t="s">
+        <v>157</v>
+      </c>
+      <c r="C134" t="s">
+        <v>336</v>
+      </c>
+      <c r="D134" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>335</v>
+      </c>
+      <c r="B135" t="s">
+        <v>158</v>
+      </c>
+      <c r="C135" t="s">
+        <v>336</v>
+      </c>
+      <c r="D135" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>335</v>
+      </c>
+      <c r="B136" t="s">
+        <v>159</v>
+      </c>
+      <c r="C136" t="s">
+        <v>336</v>
+      </c>
+      <c r="D136" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>334</v>
+      </c>
+      <c r="B137" t="s">
+        <v>160</v>
+      </c>
+      <c r="C137" t="s">
+        <v>336</v>
+      </c>
+      <c r="D137" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>335</v>
+      </c>
+      <c r="B138" t="s">
+        <v>161</v>
+      </c>
+      <c r="C138" t="s">
+        <v>336</v>
+      </c>
+      <c r="D138" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>335</v>
+      </c>
+      <c r="B139" t="s">
+        <v>162</v>
+      </c>
+      <c r="C139" t="s">
+        <v>336</v>
+      </c>
+      <c r="D139" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>335</v>
+      </c>
+      <c r="B140" t="s">
+        <v>163</v>
+      </c>
+      <c r="C140" t="s">
+        <v>336</v>
+      </c>
+      <c r="D140" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>335</v>
+      </c>
+      <c r="B141" t="s">
+        <v>166</v>
+      </c>
+      <c r="C141" t="s">
+        <v>336</v>
+      </c>
+      <c r="D141" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>335</v>
+      </c>
+      <c r="B142" t="s">
+        <v>167</v>
+      </c>
+      <c r="C142" t="s">
+        <v>336</v>
+      </c>
+      <c r="D142" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>335</v>
+      </c>
+      <c r="B143" t="s">
+        <v>168</v>
+      </c>
+      <c r="C143" t="s">
+        <v>336</v>
+      </c>
+      <c r="D143" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>335</v>
+      </c>
+      <c r="B144" t="s">
+        <v>169</v>
+      </c>
+      <c r="C144" t="s">
+        <v>336</v>
+      </c>
+      <c r="D144" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>335</v>
+      </c>
+      <c r="B145" t="s">
+        <v>170</v>
+      </c>
+      <c r="C145" t="s">
+        <v>336</v>
+      </c>
+      <c r="D145" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>335</v>
+      </c>
+      <c r="B146" t="s">
+        <v>171</v>
+      </c>
+      <c r="C146" t="s">
+        <v>336</v>
+      </c>
+      <c r="D146" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>335</v>
+      </c>
+      <c r="B147" t="s">
+        <v>172</v>
+      </c>
+      <c r="C147" t="s">
+        <v>336</v>
+      </c>
+      <c r="D147" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>334</v>
+      </c>
+      <c r="B148" t="s">
+        <v>175</v>
+      </c>
+      <c r="C148" t="s">
+        <v>336</v>
+      </c>
+      <c r="D148" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>335</v>
+      </c>
+      <c r="B149" t="s">
+        <v>176</v>
+      </c>
+      <c r="C149" t="s">
+        <v>336</v>
+      </c>
+      <c r="D149" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/magic/CJE/旧版手册呪文_仅名称.xlsx
+++ b/magic/CJE/旧版手册呪文_仅名称.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\resap\Downloads\alll\magic\CJE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67DED8E-E0FA-483B-A2F7-156AF5731AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32864275-6BFE-4D70-AA1A-EDE681E53202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9930" yWindow="405" windowWidth="17805" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10620" yWindow="225" windowWidth="17805" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="旧版手册呪文" sheetId="1" r:id="rId1"/>
-    <sheet name="顺序" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="牌堆内目录" sheetId="2" r:id="rId3"/>
+    <sheet name="颜色对应" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="351">
   <si>
     <t>Key</t>
   </si>
@@ -796,9 +798,6 @@
     <t>RIVERGODISCURSE/河神的诅咒/RiverGodCurse</t>
   </si>
   <si>
-    <t>Synonym\绿=三语\蓝=牌堆外\黄=无对应</t>
-  </si>
-  <si>
     <t>REDSIGNOFSHUDDEM'ELL/修德梅尔赤印术/RedSignofShuddeM'ell</t>
   </si>
   <si>
@@ -976,9 +975,6 @@
     <t>MINDBLAST/精神震爆术/Mindblast</t>
   </si>
   <si>
-    <t>CREATEWINDOW/时空窗创造术/CreateGateWindow</t>
-  </si>
-  <si>
     <t>VOICEOFRA/拉神之声/VoiceofRa</t>
   </si>
   <si>
@@ -1049,13 +1045,49 @@
   </si>
   <si>
     <t>汇报错误等请使用以下渠道：</t>
+  </si>
+  <si>
+    <t>Synonym</t>
+  </si>
+  <si>
+    <t>三语</t>
+  </si>
+  <si>
+    <t>已收录</t>
+  </si>
+  <si>
+    <t>仅对应名称</t>
+  </si>
+  <si>
+    <t>未收录</t>
+  </si>
+  <si>
+    <t>无对应</t>
+  </si>
+  <si>
+    <t>CN:</t>
+  </si>
+  <si>
+    <t>JP:</t>
+  </si>
+  <si>
+    <t>EN:</t>
+  </si>
+  <si>
+    <t>中+英</t>
+  </si>
+  <si>
+    <t>CREATEWINDOW/猜测：时空窗创造术/CreateGateWindow</t>
+  </si>
+  <si>
+    <t>中+英+简短日释义</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1078,8 +1110,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1110,6 +1161,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1120,12 +1183,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1138,11 +1202,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{D9287D27-76C0-4546-870A-7459ADFC8B3F}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{D32DC678-1E66-4D45-9C87-7FBFEA4953E3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1423,8 +1496,8 @@
   <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1442,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>256</v>
+        <v>339</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1494,7 +1567,7 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="11" t="s">
         <v>181</v>
       </c>
     </row>
@@ -1630,7 +1703,7 @@
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="14" t="s">
         <v>196</v>
       </c>
     </row>
@@ -1782,7 +1855,7 @@
       <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="11" t="s">
         <v>212</v>
       </c>
     </row>
@@ -1879,7 +1952,7 @@
         <v>59</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2127,7 +2200,7 @@
         <v>91</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2143,7 +2216,7 @@
         <v>94</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2151,7 +2224,7 @@
         <v>95</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2159,7 +2232,7 @@
         <v>96</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2167,15 +2240,15 @@
         <v>97</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>98</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>266</v>
+      <c r="B91" s="9" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2183,7 +2256,7 @@
         <v>99</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2191,7 +2264,7 @@
         <v>100</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2199,15 +2272,15 @@
         <v>101</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2215,7 +2288,7 @@
         <v>102</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2223,7 +2296,7 @@
         <v>103</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2231,7 +2304,7 @@
         <v>104</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2239,7 +2312,7 @@
         <v>105</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2247,7 +2320,7 @@
         <v>106</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2255,7 +2328,7 @@
         <v>107</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2263,7 +2336,7 @@
         <v>108</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2271,7 +2344,7 @@
         <v>109</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2279,7 +2352,7 @@
         <v>110</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2287,7 +2360,7 @@
         <v>111</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2303,7 +2376,7 @@
         <v>114</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2311,7 +2384,7 @@
         <v>115</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2319,7 +2392,7 @@
         <v>116</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2327,15 +2400,15 @@
         <v>117</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
+        <v>281</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2343,7 +2416,7 @@
         <v>118</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2351,7 +2424,7 @@
         <v>119</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2359,7 +2432,7 @@
         <v>120</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2367,7 +2440,7 @@
         <v>121</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2375,7 +2448,7 @@
         <v>122</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2383,7 +2456,7 @@
         <v>123</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2391,7 +2464,7 @@
         <v>124</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2399,7 +2472,7 @@
         <v>125</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2407,7 +2480,7 @@
         <v>126</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2423,7 +2496,7 @@
         <v>129</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2431,7 +2504,7 @@
         <v>130</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2439,7 +2512,7 @@
         <v>131</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2447,7 +2520,7 @@
         <v>132</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2455,7 +2528,7 @@
         <v>133</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2463,7 +2536,7 @@
         <v>134</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2471,7 +2544,7 @@
         <v>135</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2479,7 +2552,7 @@
         <v>136</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2487,15 +2560,15 @@
         <v>137</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2503,7 +2576,7 @@
         <v>138</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2511,7 +2584,7 @@
         <v>139</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2519,15 +2592,15 @@
         <v>140</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>141</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>313</v>
+      <c r="B135" s="15" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2535,7 +2608,7 @@
         <v>142</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2543,7 +2616,7 @@
         <v>143</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2551,7 +2624,7 @@
         <v>144</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2567,7 +2640,7 @@
         <v>147</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2583,7 +2656,7 @@
         <v>150</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2591,7 +2664,7 @@
         <v>151</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2607,7 +2680,7 @@
         <v>154</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2615,7 +2688,7 @@
         <v>155</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2623,7 +2696,7 @@
         <v>156</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2631,7 +2704,7 @@
         <v>157</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2639,7 +2712,7 @@
         <v>158</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2647,7 +2720,7 @@
         <v>159</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2655,7 +2728,7 @@
         <v>160</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2663,7 +2736,7 @@
         <v>161</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2671,7 +2744,7 @@
         <v>162</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2679,7 +2752,7 @@
         <v>163</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2695,7 +2768,7 @@
         <v>166</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2703,7 +2776,7 @@
         <v>167</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2711,7 +2784,7 @@
         <v>168</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2719,7 +2792,7 @@
         <v>169</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2727,7 +2800,7 @@
         <v>170</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2735,7 +2808,7 @@
         <v>171</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2743,7 +2816,7 @@
         <v>172</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2759,7 +2832,7 @@
         <v>175</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2767,7 +2840,7 @@
         <v>176</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2777,53 +2850,172 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB29E7B-1F47-4182-A380-70416D0F951F}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="D3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="C4" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="C6" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="C10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="D16" t="s">
+        <v>347</v>
+      </c>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52749F28-BD4A-42E3-8FF0-74AD0ADF569F}">
   <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D6" t="s">
         <v>177</v>
@@ -2831,13 +3023,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D7" t="s">
         <v>178</v>
@@ -2845,13 +3037,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D8" t="s">
         <v>179</v>
@@ -2859,13 +3051,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D9" t="s">
         <v>180</v>
@@ -2873,13 +3065,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D10" t="s">
         <v>181</v>
@@ -2887,13 +3079,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D11" t="s">
         <v>182</v>
@@ -2901,13 +3093,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D12" t="s">
         <v>183</v>
@@ -2915,13 +3107,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D13" t="s">
         <v>184</v>
@@ -2929,13 +3121,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D14" t="s">
         <v>185</v>
@@ -2943,13 +3135,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D15" t="s">
         <v>186</v>
@@ -2957,13 +3149,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D16" t="s">
         <v>187</v>
@@ -2971,13 +3163,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D17" t="s">
         <v>188</v>
@@ -2985,13 +3177,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D18" t="s">
         <v>189</v>
@@ -2999,13 +3191,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D19" t="s">
         <v>190</v>
@@ -3013,13 +3205,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D20" t="s">
         <v>191</v>
@@ -3027,13 +3219,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D21" t="s">
         <v>192</v>
@@ -3041,13 +3233,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D22" t="s">
         <v>193</v>
@@ -3055,13 +3247,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D23" t="s">
         <v>194</v>
@@ -3069,13 +3261,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D24" t="s">
         <v>253</v>
@@ -3083,13 +3275,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D25" t="s">
         <v>195</v>
@@ -3097,13 +3289,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D26" t="s">
         <v>196</v>
@@ -3111,13 +3303,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D27" t="s">
         <v>198</v>
@@ -3125,13 +3317,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D28" t="s">
         <v>199</v>
@@ -3139,13 +3331,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D29" t="s">
         <v>200</v>
@@ -3153,13 +3345,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D30" t="s">
         <v>201</v>
@@ -3167,13 +3359,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D31" t="s">
         <v>202</v>
@@ -3181,13 +3373,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D32" t="s">
         <v>203</v>
@@ -3195,13 +3387,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D33" t="s">
         <v>204</v>
@@ -3209,13 +3401,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B34" t="s">
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D34" t="s">
         <v>205</v>
@@ -3223,13 +3415,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D35" t="s">
         <v>206</v>
@@ -3237,13 +3429,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D36" t="s">
         <v>207</v>
@@ -3251,13 +3443,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s">
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D37" t="s">
         <v>208</v>
@@ -3265,13 +3457,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D38" t="s">
         <v>209</v>
@@ -3279,13 +3471,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D39" t="s">
         <v>210</v>
@@ -3293,13 +3485,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D40" t="s">
         <v>211</v>
@@ -3307,13 +3499,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s">
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D41" t="s">
         <v>212</v>
@@ -3321,13 +3513,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B42" t="s">
         <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D42" t="s">
         <v>213</v>
@@ -3335,13 +3527,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B43" t="s">
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D43" t="s">
         <v>214</v>
@@ -3349,13 +3541,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s">
         <v>197</v>
       </c>
       <c r="C44" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D44" t="s">
         <v>215</v>
@@ -3363,13 +3555,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s">
         <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D45" t="s">
         <v>216</v>
@@ -3377,13 +3569,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B46" t="s">
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D46" t="s">
         <v>217</v>
@@ -3391,13 +3583,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B47" t="s">
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D47" t="s">
         <v>218</v>
@@ -3405,13 +3597,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B48" t="s">
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D48" t="s">
         <v>219</v>
@@ -3419,13 +3611,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B49" t="s">
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D49" t="s">
         <v>220</v>
@@ -3433,13 +3625,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B50" t="s">
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D50" t="s">
         <v>221</v>
@@ -3447,13 +3639,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B51" t="s">
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D51" t="s">
         <v>222</v>
@@ -3461,13 +3653,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B52" t="s">
         <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D52" t="s">
         <v>223</v>
@@ -3475,13 +3667,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B53" t="s">
         <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D53" t="s">
         <v>224</v>
@@ -3489,13 +3681,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B54" t="s">
         <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D54" t="s">
         <v>225</v>
@@ -3503,13 +3695,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B55" t="s">
         <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D55" t="s">
         <v>226</v>
@@ -3517,13 +3709,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B56" t="s">
         <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D56" t="s">
         <v>229</v>
@@ -3531,13 +3723,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B57" t="s">
         <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D57" t="s">
         <v>230</v>
@@ -3545,13 +3737,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B58" t="s">
         <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D58" t="s">
         <v>231</v>
@@ -3559,13 +3751,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B59" t="s">
         <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D59" t="s">
         <v>232</v>
@@ -3573,13 +3765,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B60" t="s">
         <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D60" t="s">
         <v>233</v>
@@ -3587,13 +3779,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B61" t="s">
         <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D61" t="s">
         <v>234</v>
@@ -3601,13 +3793,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B62" t="s">
         <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D62" t="s">
         <v>235</v>
@@ -3615,13 +3807,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B63" t="s">
         <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D63" t="s">
         <v>236</v>
@@ -3629,13 +3821,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B64" t="s">
         <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D64" t="s">
         <v>237</v>
@@ -3643,13 +3835,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B65" t="s">
         <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D65" t="s">
         <v>238</v>
@@ -3657,13 +3849,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B66" t="s">
         <v>76</v>
       </c>
       <c r="C66" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D66" t="s">
         <v>239</v>
@@ -3671,13 +3863,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B67" t="s">
         <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D67" t="s">
         <v>240</v>
@@ -3685,13 +3877,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B68" t="s">
         <v>78</v>
       </c>
       <c r="C68" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D68" t="s">
         <v>241</v>
@@ -3699,13 +3891,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B69" t="s">
         <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D69" t="s">
         <v>242</v>
@@ -3713,13 +3905,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B70" t="s">
         <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D70" t="s">
         <v>243</v>
@@ -3727,13 +3919,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B71" t="s">
         <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D71" t="s">
         <v>244</v>
@@ -3741,13 +3933,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B72" t="s">
         <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D72" t="s">
         <v>245</v>
@@ -3755,13 +3947,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B73" t="s">
         <v>83</v>
       </c>
       <c r="C73" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D73" t="s">
         <v>246</v>
@@ -3769,13 +3961,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B74" t="s">
         <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D74" t="s">
         <v>247</v>
@@ -3783,13 +3975,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B75" t="s">
         <v>85</v>
       </c>
       <c r="C75" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D75" t="s">
         <v>248</v>
@@ -3797,13 +3989,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B76" t="s">
         <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D76" t="s">
         <v>249</v>
@@ -3811,13 +4003,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B77" t="s">
         <v>87</v>
       </c>
       <c r="C77" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D77" t="s">
         <v>250</v>
@@ -3825,13 +4017,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B78" t="s">
         <v>88</v>
       </c>
       <c r="C78" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D78" t="s">
         <v>251</v>
@@ -3839,1101 +4031,1150 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B79" t="s">
         <v>91</v>
       </c>
       <c r="C79" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D79" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B80" t="s">
         <v>94</v>
       </c>
       <c r="C80" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D80" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B81" t="s">
         <v>95</v>
       </c>
       <c r="C81" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D81" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B82" t="s">
         <v>96</v>
       </c>
       <c r="C82" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D82" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B83" t="s">
         <v>97</v>
       </c>
       <c r="C83" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B84" t="s">
         <v>98</v>
       </c>
       <c r="C84" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D84" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B85" t="s">
         <v>99</v>
       </c>
       <c r="C85" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D85" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B86" t="s">
         <v>100</v>
       </c>
       <c r="C86" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D86" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B87" t="s">
         <v>101</v>
       </c>
       <c r="C87" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D87" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B88" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C88" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D88" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B89" t="s">
         <v>102</v>
       </c>
       <c r="C89" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D89" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B90" t="s">
         <v>103</v>
       </c>
       <c r="C90" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D90" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B91" t="s">
         <v>105</v>
       </c>
       <c r="C91" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D91" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B92" t="s">
         <v>106</v>
       </c>
       <c r="C92" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D92" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B93" t="s">
         <v>107</v>
       </c>
       <c r="C93" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D93" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B94" t="s">
         <v>108</v>
       </c>
       <c r="C94" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D94" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B95" t="s">
         <v>109</v>
       </c>
       <c r="C95" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D95" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B96" t="s">
         <v>110</v>
       </c>
       <c r="C96" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D96" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B97" t="s">
         <v>111</v>
       </c>
       <c r="C97" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D97" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B98" t="s">
         <v>114</v>
       </c>
       <c r="C98" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D98" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B99" t="s">
         <v>115</v>
       </c>
       <c r="C99" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D99" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B100" t="s">
         <v>116</v>
       </c>
       <c r="C100" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D100" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B101" t="s">
         <v>117</v>
       </c>
       <c r="C101" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D101" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B102" t="s">
+        <v>281</v>
+      </c>
+      <c r="C102" t="s">
+        <v>334</v>
+      </c>
+      <c r="D102" t="s">
         <v>282</v>
-      </c>
-      <c r="C102" t="s">
-        <v>336</v>
-      </c>
-      <c r="D102" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B103" t="s">
         <v>118</v>
       </c>
       <c r="C103" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D103" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B104" t="s">
         <v>119</v>
       </c>
       <c r="C104" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D104" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B105" t="s">
         <v>120</v>
       </c>
       <c r="C105" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D105" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B106" t="s">
         <v>121</v>
       </c>
       <c r="C106" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D106" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B107" t="s">
         <v>122</v>
       </c>
       <c r="C107" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D107" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B108" t="s">
         <v>123</v>
       </c>
       <c r="C108" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D108" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B109" t="s">
         <v>124</v>
       </c>
       <c r="C109" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D109" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B110" t="s">
         <v>125</v>
       </c>
       <c r="C110" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D110" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B111" t="s">
         <v>126</v>
       </c>
       <c r="C111" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D111" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B112" t="s">
         <v>129</v>
       </c>
       <c r="C112" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D112" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B113" t="s">
         <v>130</v>
       </c>
       <c r="C113" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D113" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B114" t="s">
         <v>131</v>
       </c>
       <c r="C114" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D114" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B115" t="s">
         <v>132</v>
       </c>
       <c r="C115" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D115" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B116" t="s">
         <v>133</v>
       </c>
       <c r="C116" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D116" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B117" t="s">
         <v>134</v>
       </c>
       <c r="C117" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D117" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B118" t="s">
         <v>135</v>
       </c>
       <c r="C118" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D118" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B119" t="s">
         <v>136</v>
       </c>
       <c r="C119" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D119" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B120" t="s">
         <v>137</v>
       </c>
       <c r="C120" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D120" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B121" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C121" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D121" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B122" t="s">
         <v>138</v>
       </c>
       <c r="C122" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D122" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B123" t="s">
         <v>139</v>
       </c>
       <c r="C123" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D123" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B124" t="s">
         <v>140</v>
       </c>
       <c r="C124" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D124" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B125" t="s">
         <v>141</v>
       </c>
       <c r="C125" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D125" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B126" t="s">
         <v>142</v>
       </c>
       <c r="C126" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D126" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B127" t="s">
         <v>143</v>
       </c>
       <c r="C127" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D127" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B128" t="s">
         <v>147</v>
       </c>
       <c r="C128" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D128" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B129" t="s">
         <v>150</v>
       </c>
       <c r="C129" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D129" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B130" t="s">
         <v>151</v>
       </c>
       <c r="C130" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D130" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B131" t="s">
         <v>154</v>
       </c>
       <c r="C131" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D131" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B132" t="s">
         <v>155</v>
       </c>
       <c r="C132" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D132" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B133" t="s">
         <v>156</v>
       </c>
       <c r="C133" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D133" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B134" t="s">
         <v>157</v>
       </c>
       <c r="C134" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D134" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B135" t="s">
         <v>158</v>
       </c>
       <c r="C135" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D135" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B136" t="s">
         <v>159</v>
       </c>
       <c r="C136" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D136" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B137" t="s">
         <v>160</v>
       </c>
       <c r="C137" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D137" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B138" t="s">
         <v>161</v>
       </c>
       <c r="C138" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D138" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B139" t="s">
         <v>162</v>
       </c>
       <c r="C139" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D139" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B140" t="s">
         <v>163</v>
       </c>
       <c r="C140" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D140" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B141" t="s">
         <v>166</v>
       </c>
       <c r="C141" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D141" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B142" t="s">
         <v>167</v>
       </c>
       <c r="C142" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D142" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B143" t="s">
         <v>168</v>
       </c>
       <c r="C143" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D143" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B144" t="s">
         <v>169</v>
       </c>
       <c r="C144" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D144" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B145" t="s">
         <v>170</v>
       </c>
       <c r="C145" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D145" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B146" t="s">
         <v>171</v>
       </c>
       <c r="C146" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D146" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B147" t="s">
         <v>172</v>
       </c>
       <c r="C147" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D147" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B148" t="s">
         <v>175</v>
       </c>
       <c r="C148" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D148" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B149" t="s">
         <v>176</v>
       </c>
       <c r="C149" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D149" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>334</v>
+        <v>332</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2888357-E040-45AE-90AA-C2F78C3ED7B6}">
+  <dimension ref="B2:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="8"/>
+      <c r="C4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="9"/>
+      <c r="C6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="11"/>
+      <c r="C8" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/magic/CJE/旧版手册呪文_仅名称.xlsx
+++ b/magic/CJE/旧版手册呪文_仅名称.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\resap\Downloads\alll\magic\CJE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C78F7B-8EA0-42C0-AEAA-D280ADBC20BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F304DB5C-B68F-46B0-89CD-50F32C47CFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10620" yWindow="225" windowWidth="17805" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1201,7 +1201,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1218,7 +1218,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -1506,8 +1505,8 @@
   <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1649,7 +1648,7 @@
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>344</v>
       </c>
     </row>
@@ -1881,7 +1880,7 @@
       <c r="A44" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>349</v>
       </c>
     </row>
@@ -1889,7 +1888,7 @@
       <c r="A45" t="s">
         <v>350</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>351</v>
       </c>
     </row>
@@ -2923,7 +2922,6 @@
       <c r="D9" t="s">
         <v>339</v>
       </c>
-      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5">
       <c r="C10" t="s">
@@ -3029,7 +3027,7 @@
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="13"/>
+      <c r="B10" s="12"/>
       <c r="C10" t="s">
         <v>345</v>
       </c>

--- a/magic/CJE/旧版手册呪文_仅名称.xlsx
+++ b/magic/CJE/旧版手册呪文_仅名称.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\resap\Downloads\alll\magic\CJE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F304DB5C-B68F-46B0-89CD-50F32C47CFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C1105B-2570-4E53-A444-0A3B17E0F33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="225" windowWidth="17805" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11460" yWindow="195" windowWidth="16440" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="旧版手册呪文" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="颜色对应" sheetId="5" r:id="rId3"/>
-    <sheet name="牌堆内目录" sheetId="2" r:id="rId4"/>
+    <sheet name="牌堆内目录" sheetId="2" r:id="rId3"/>
+    <sheet name="颜色对应" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1505,8 +1505,8 @@
   <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B168" sqref="B168"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1608,7 +1608,7 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>180</v>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2824,7 +2824,7 @@
       <c r="A162" t="s">
         <v>167</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="9" t="s">
         <v>300</v>
       </c>
     </row>
@@ -2832,7 +2832,7 @@
       <c r="A163" t="s">
         <v>168</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="9" t="s">
         <v>301</v>
       </c>
     </row>
@@ -2848,7 +2848,7 @@
       <c r="A165" t="s">
         <v>171</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="9" t="s">
         <v>302</v>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       <c r="A166" t="s">
         <v>172</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="9" t="s">
         <v>303</v>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2983,6 +2983,1040 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52749F28-BD4A-42E3-8FF0-74AD0ADF569F}">
+  <dimension ref="A1:B203"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2888357-E040-45AE-90AA-C2F78C3ED7B6}">
   <dimension ref="B2:F10"/>
   <sheetViews>
@@ -3035,1038 +4069,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52749F28-BD4A-42E3-8FF0-74AD0ADF569F}">
-  <dimension ref="A1:B203"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C199" sqref="C199"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
-        <v>327</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/magic/CJE/旧版手册呪文_仅名称.xlsx
+++ b/magic/CJE/旧版手册呪文_仅名称.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\resap\Downloads\alll\magic\CJE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C1105B-2570-4E53-A444-0A3B17E0F33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19833420-8DE7-4181-A95C-66D51CA18E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="195" windowWidth="16440" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9855" yWindow="105" windowWidth="18915" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="旧版手册呪文" sheetId="1" r:id="rId1"/>
@@ -1506,7 +1506,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A158" sqref="A158"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1624,7 +1624,7 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>182</v>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="11" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1640,7 +1640,7 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="9" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="11" t="s">
         <v>186</v>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="11" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="11" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="11" t="s">
         <v>248</v>
       </c>
     </row>
@@ -2868,54 +2868,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB29E7B-1F47-4182-A380-70416D0F951F}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="D3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="C4" t="s">
         <v>328</v>
       </c>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="C5" t="s">
         <v>328</v>
       </c>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="C6" t="s">
         <v>328</v>
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:4">
       <c r="C7" t="s">
         <v>328</v>
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:4">
       <c r="C9" t="s">
         <v>327</v>
       </c>
@@ -2923,34 +2923,33 @@
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:4">
       <c r="C10" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:4">
       <c r="C11" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:4">
       <c r="C12" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:4">
       <c r="C13" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:4">
       <c r="C16" t="s">
         <v>327</v>
       </c>
       <c r="D16" t="s">
         <v>341</v>
       </c>
-      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">

--- a/magic/CJE/旧版手册呪文_仅名称.xlsx
+++ b/magic/CJE/旧版手册呪文_仅名称.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\resap\Downloads\alll\magic\CJE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19833420-8DE7-4181-A95C-66D51CA18E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9855" yWindow="105" windowWidth="18915" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="旧版手册呪文" sheetId="1" r:id="rId1"/>
@@ -1505,8 +1505,8 @@
   <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B161" sqref="B157:B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/magic/CJE/旧版手册呪文_仅名称.xlsx
+++ b/magic/CJE/旧版手册呪文_仅名称.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\resap\Downloads\alll\magic\CJE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c6fb186291c3cd/github/alll/magic/CJE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C45E2779-58B6-4B8F-803C-2B8F51CC6000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2625" yWindow="150" windowWidth="16515" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="旧版手册呪文" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="牌堆内目录" sheetId="2" r:id="rId3"/>
-    <sheet name="颜色对应" sheetId="5" r:id="rId4"/>
+    <sheet name="颜色对应" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="牌堆内目录" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1505,8 +1505,8 @@
   <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B161" sqref="B157:B161"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1736,7 +1736,7 @@
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="11" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="9" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
       <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="11" t="s">
         <v>196</v>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
       <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="11" t="s">
         <v>197</v>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="11" t="s">
         <v>198</v>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>199</v>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="11" t="s">
         <v>200</v>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
       <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="11" t="s">
         <v>201</v>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
       <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>202</v>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
       <c r="A38" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="11" t="s">
         <v>204</v>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="11" t="s">
         <v>205</v>
       </c>
     </row>
@@ -1848,7 +1848,7 @@
       <c r="A40" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="11" t="s">
         <v>206</v>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       <c r="A43" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="11" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2867,6 +2867,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2888357-E040-45AE-90AA-C2F78C3ED7B6}">
+  <dimension ref="B2:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="8"/>
+      <c r="C4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="9"/>
+      <c r="C6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="11"/>
+      <c r="C8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="12"/>
+      <c r="C10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB29E7B-1F47-4182-A380-70416D0F951F}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -2981,7 +3036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52749F28-BD4A-42E3-8FF0-74AD0ADF569F}">
   <dimension ref="A1:B203"/>
   <sheetViews>
@@ -4013,59 +4068,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2888357-E040-45AE-90AA-C2F78C3ED7B6}">
-  <dimension ref="B2:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="2:6">
-      <c r="B2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="8"/>
-      <c r="C4" t="s">
-        <v>334</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="9"/>
-      <c r="C6" t="s">
-        <v>342</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="11"/>
-      <c r="C8" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="12"/>
-      <c r="C10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/magic/CJE/旧版手册呪文_仅名称.xlsx
+++ b/magic/CJE/旧版手册呪文_仅名称.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c6fb186291c3cd/github/alll/magic/CJE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C45E2779-58B6-4B8F-803C-2B8F51CC6000}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{E16AFC2B-E770-4477-B830-0D96E1264306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0B688FB-6582-41D8-B28D-7DC7136A362C}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="150" windowWidth="16515" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11880" yWindow="135" windowWidth="16815" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="旧版手册呪文" sheetId="1" r:id="rId1"/>
-    <sheet name="颜色对应" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
-    <sheet name="牌堆内目录" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="牌堆内目录" sheetId="2" r:id="rId3"/>
+    <sheet name="颜色对应" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1237,6 +1237,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1505,8 +1509,8 @@
   <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1896,7 +1900,7 @@
       <c r="A46" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>209</v>
       </c>
     </row>
@@ -1904,7 +1908,7 @@
       <c r="A47" t="s">
         <v>192</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>210</v>
       </c>
     </row>
@@ -1912,7 +1916,7 @@
       <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="11" t="s">
         <v>211</v>
       </c>
     </row>
@@ -1920,7 +1924,7 @@
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="11" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2867,6 +2871,1155 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB29E7B-1F47-4182-A380-70416D0F951F}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="D3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52749F28-BD4A-42E3-8FF0-74AD0ADF569F}">
+  <dimension ref="A1:B203"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2888357-E040-45AE-90AA-C2F78C3ED7B6}">
   <dimension ref="B2:F10"/>
   <sheetViews>
@@ -2919,1153 +4072,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB29E7B-1F47-4182-A380-70416D0F951F}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="D3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="C4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="C5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="C6" t="s">
-        <v>328</v>
-      </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="C7" t="s">
-        <v>328</v>
-      </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="C9" t="s">
-        <v>327</v>
-      </c>
-      <c r="D9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="C10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="C11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="C12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="C13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="C16" t="s">
-        <v>327</v>
-      </c>
-      <c r="D16" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
-        <v>328</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52749F28-BD4A-42E3-8FF0-74AD0ADF569F}">
-  <dimension ref="A1:B203"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
-        <v>327</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>